--- a/medie mobili esercizio.xlsx
+++ b/medie mobili esercizio.xlsx
@@ -11267,8 +11267,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -11310,7 +11310,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:yVal>
+          <c:val>
             <c:numRef>
               <c:f>Esercizio!$D$2:$D$101</c:f>
               <c:numCache>
@@ -11615,31 +11615,34 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="0"/>
         <c:axId val="1"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="0"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -11660,8 +11663,11 @@
         </c:txPr>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1"/>
         <c:scaling>
@@ -11715,7 +11721,7 @@
         </c:txPr>
         <c:crossAx val="0"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11774,6 +11780,2048 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="57"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="58"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="59"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="60"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="61"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="62"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="63"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="64"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="65"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="66"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="67"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="68"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="69"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="70"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="71"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="72"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="73"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="74"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="75"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="76"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="77"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="78"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="79"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="80"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="50000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="81"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="82"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="83"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="84"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="85"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="86"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="87"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="88"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="89"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="90"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="91"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="92"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="93"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="94"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="95"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumOff val="40000"/>
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="96"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="97"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="98"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="99"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="100"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumOff val="30000"/>
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Esercizio!$F$1:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>74.190476190476</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.588235294118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900" kern="1200">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -11905,6 +13953,43 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -13957,6 +16042,532 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="4294967295"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="4294967295"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="4294967295"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="4294967295"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="4294967295"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="4294967295"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
@@ -13996,16 +16607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14013,8 +16624,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4305300" y="4572000"/>
-        <a:ext cx="4352925" cy="3343275"/>
+        <a:off x="3543300" y="5286375"/>
+        <a:ext cx="4991100" cy="3924300"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14026,16 +16637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14043,12 +16654,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1457325" y="1838325"/>
+        <a:off x="781050" y="4305300"/>
         <a:ext cx="4876800" cy="2857500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3267075" y="1600200"/>
+        <a:ext cx="4876800" cy="2857500"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17433,8 +20074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3598CC-D706-4304-8C4E-61F8F8328AE5}">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10" tabSelected="1">
-      <selection sqref="L12" activeCell="L12" activeCellId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection sqref="O9" activeCell="O9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
